--- a/temporalDB/TemporalDataset.xlsx
+++ b/temporalDB/TemporalDataset.xlsx
@@ -1747,7 +1747,7 @@
     <t>other</t>
   </si>
   <si>
-    <t>unknown</t>
+    <t>unrated</t>
   </si>
   <si>
     <t>name</t>
